--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Rolle</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PW Ändern</t>
   </si>
   <si>
-    <t>Falsches PW</t>
-  </si>
-  <si>
     <t>Neuen PW stimmen nicht überein</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Altes PW eingeben, 2x das Neue PW eingeben „Speichern“ drücken, danach versuchen mit dem neuen PW anzumelden.</t>
   </si>
   <si>
-    <t>Das alte PW wird falsch eingegeben.</t>
-  </si>
-  <si>
     <t>Neues PW und PW Wid. Sind nicht gleich.</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t>Mit weiter bestätigen</t>
   </si>
   <si>
-    <t>Man kann sich mit dem neuen PW anmelden und es wird eine Meldung ausgegeben, dass PW Ändern erfolgreich war.</t>
-  </si>
-  <si>
-    <t>Fehlermeldung, PW falsch.</t>
-  </si>
-  <si>
     <t>Fehlermeldung, PW stimmen nicht überein.</t>
   </si>
   <si>
@@ -220,6 +208,33 @@
   </si>
   <si>
     <t>Inhalt wird entsprechend verschoben</t>
+  </si>
+  <si>
+    <t>Funktioniert</t>
+  </si>
+  <si>
+    <t>15.10.2013 11:02Uhr</t>
+  </si>
+  <si>
+    <t>15.10.2013 11:06Uhr</t>
+  </si>
+  <si>
+    <t>Funktioniert nicht</t>
+  </si>
+  <si>
+    <t>15.10.2013 11:07Uhr</t>
+  </si>
+  <si>
+    <t>Man kann sich mit dem neuen PW anmelden und es wird eine Meldung ausgegeben, dass PW Ändern erfolgreich war. Falls altes Passwort falsch, dann Fehlermedung</t>
+  </si>
+  <si>
+    <t>Funtioniert</t>
+  </si>
+  <si>
+    <t>15.10.2013 11:12Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktioniert </t>
   </si>
 </sst>
 </file>
@@ -248,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +273,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,6 +315,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,11 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -598,6 +647,7 @@
     <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -605,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -614,336 +664,378 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="90">
-      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="120">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="75">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="45">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="45">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
+      <c r="E8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="45">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="30">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="16">
+        <v>41562.468055555553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" ht="45">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="16">
+        <v>41563.468055497688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="30">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="F21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="E39" s="1"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="4"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="1"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:5">
       <c r="E67" s="1"/>
@@ -954,20 +1046,17 @@
     <row r="69" spans="2:5">
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5">
-      <c r="E70" s="1"/>
+    <row r="74" spans="2:5">
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="4"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Rolle</t>
   </si>
@@ -235,6 +235,36 @@
   </si>
   <si>
     <t xml:space="preserve">Funktioniert </t>
+  </si>
+  <si>
+    <t>16.10.2013 9:32Uhr</t>
+  </si>
+  <si>
+    <t>funktioniert nicht</t>
+  </si>
+  <si>
+    <t>16.10.2013  9:35Uhr</t>
+  </si>
+  <si>
+    <t>15.10.2013  11:14Uhr</t>
+  </si>
+  <si>
+    <t>funktinoiert nicht</t>
+  </si>
+  <si>
+    <t>Zentralbereichsleiter</t>
+  </si>
+  <si>
+    <t>Weiterleitung von 1.Passwort ändern</t>
+  </si>
+  <si>
+    <t>Passwort nach erstem Login ändern</t>
+  </si>
+  <si>
+    <t>Weiterleitung auf den Startbildschirm nach erfolgreichem ändern</t>
+  </si>
+  <si>
+    <t>16.10.2013 9:40Uhr</t>
   </si>
 </sst>
 </file>
@@ -301,13 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,8 +665,8 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -654,154 +683,159 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="120">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="120">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="30">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="E4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="30">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="75">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="75">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="45">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="45">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -820,46 +854,64 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -918,18 +970,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="30">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>60</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -946,93 +1004,113 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" ht="30">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="1:6" s="13" customFormat="1" ht="30">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="16">
-        <v>41562.468055555553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" ht="45">
-      <c r="A20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="F19" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="16">
-        <v>41563.468055497688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="F20" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="38" spans="2:5">
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
       <c r="E40" s="1"/>
     </row>
     <row r="59" spans="2:5">
       <c r="E59" s="1"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="66" spans="2:5">
       <c r="E66" s="1"/>
@@ -1050,13 +1128,13 @@
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="80" spans="2:5">
       <c r="E80" s="1"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Rolle</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>16.10.2013 9:40Uhr</t>
+  </si>
+  <si>
+    <t>wurde angepasst, kein button mehr für passwort vergessen</t>
+  </si>
+  <si>
+    <t>16.10.2013 12:02Uhr</t>
+  </si>
+  <si>
+    <t>funktioniert</t>
   </si>
 </sst>
 </file>
@@ -293,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,11 +376,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,8 +680,8 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -675,7 +690,7 @@
     <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,7 +707,7 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -712,7 +727,7 @@
       <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -732,7 +747,7 @@
       <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -752,31 +767,31 @@
       <c r="D4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="30">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:6" s="13" customFormat="1" ht="30">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>66</v>
+      <c r="E5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="75">
@@ -792,7 +807,7 @@
       <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -812,7 +827,7 @@
       <c r="D7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -832,7 +847,7 @@
       <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -852,7 +867,6 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="45">
       <c r="A10" s="11" t="s">
@@ -867,7 +881,7 @@
       <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -887,7 +901,7 @@
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -907,7 +921,7 @@
       <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -983,7 +997,7 @@
       <c r="D17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -1004,41 +1018,41 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="30">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>67</v>
+      <c r="E19" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>67</v>
+      <c r="E20" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>75</v>
@@ -1084,54 +1098,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="E27" s="1"/>
-    </row>
     <row r="28" spans="1:6">
       <c r="B28" s="5"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="E30" s="1"/>
-    </row>
     <row r="31" spans="1:6">
       <c r="B31" s="3"/>
     </row>
-    <row r="38" spans="2:5">
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:2">
       <c r="B40" s="3"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="E59" s="1"/>
-    </row>
-    <row r="64" spans="2:5">
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" s="3"/>
     </row>
-    <row r="66" spans="2:5">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:2">
       <c r="B75" s="3"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="E80" s="1"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3"/>

--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Rolle</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Einloggen mit falschen Daten</t>
   </si>
   <si>
-    <t>Arbeitsgruppe ansehen beenden</t>
-  </si>
-  <si>
     <t>Woche eingeben, Jahr löschen</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Ausloggen Knopf wird betätigt.</t>
   </si>
   <si>
-    <t>Schließen Knopf bei der Ansicht „Arbeitsgruppe einsehen“</t>
-  </si>
-  <si>
     <t>Mit Text „Hallo“ füllen</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Man gelangt auf den Einloggen Bildschirm zurück.</t>
   </si>
   <si>
-    <t>Man gelangt auf den Suchbildschirm zurück und dieser ist geleert.</t>
-  </si>
-  <si>
     <t>Fehlermeldung wegen ungültiger Eingabe. Jahr benötigt.</t>
   </si>
   <si>
@@ -168,30 +159,6 @@
     <t>Testdatum</t>
   </si>
   <si>
-    <t>Radio Buttons überprüfen</t>
-  </si>
-  <si>
-    <t>Alle versuchen anzuwählen</t>
-  </si>
-  <si>
-    <t>Alle Anwählbar</t>
-  </si>
-  <si>
-    <t>Auswählen Button ohne Radio Button</t>
-  </si>
-  <si>
-    <t>Button Auswählen betätigen ohne einen Radio Button auszuwählen</t>
-  </si>
-  <si>
-    <t>Auswählen Button mit Radio Button</t>
-  </si>
-  <si>
-    <t>Auswählen Button während Radio Button ausgewählt</t>
-  </si>
-  <si>
-    <t>Entsprechend gewünschte Arbeitsgruppe wird angezeigt</t>
-  </si>
-  <si>
     <t>Abbrechen</t>
   </si>
   <si>
@@ -219,9 +186,6 @@
     <t>15.10.2013 11:06Uhr</t>
   </si>
   <si>
-    <t>Funktioniert nicht</t>
-  </si>
-  <si>
     <t>15.10.2013 11:07Uhr</t>
   </si>
   <si>
@@ -252,9 +216,6 @@
     <t>funktinoiert nicht</t>
   </si>
   <si>
-    <t>Zentralbereichsleiter</t>
-  </si>
-  <si>
     <t>Weiterleitung von 1.Passwort ändern</t>
   </si>
   <si>
@@ -274,6 +235,15 @@
   </si>
   <si>
     <t>funktioniert</t>
+  </si>
+  <si>
+    <t>16.10.2013 17:21Uhr</t>
+  </si>
+  <si>
+    <t>16.10.2013 17:00Uhr</t>
+  </si>
+  <si>
+    <t>funktioniert teilweise</t>
   </si>
 </sst>
 </file>
@@ -677,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -699,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -708,416 +678,372 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="120">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="30">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1" ht="30">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="75">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="45">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="45">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="45">
       <c r="A10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="30">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="30">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="F17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="30">
-      <c r="A17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="45">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="30">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="45">
-      <c r="A20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="30">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="3"/>
+      <c r="F18" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$79</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Rolle</t>
   </si>
@@ -177,9 +180,6 @@
     <t>Inhalt wird entsprechend verschoben</t>
   </si>
   <si>
-    <t>Funktioniert</t>
-  </si>
-  <si>
     <t>15.10.2013 11:02Uhr</t>
   </si>
   <si>
@@ -192,15 +192,9 @@
     <t>Man kann sich mit dem neuen PW anmelden und es wird eine Meldung ausgegeben, dass PW Ändern erfolgreich war. Falls altes Passwort falsch, dann Fehlermedung</t>
   </si>
   <si>
-    <t>Funtioniert</t>
-  </si>
-  <si>
     <t>15.10.2013 11:12Uhr</t>
   </si>
   <si>
-    <t xml:space="preserve">Funktioniert </t>
-  </si>
-  <si>
     <t>16.10.2013 9:32Uhr</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>15.10.2013  11:14Uhr</t>
   </si>
   <si>
-    <t>funktinoiert nicht</t>
-  </si>
-  <si>
     <t>Weiterleitung von 1.Passwort ändern</t>
   </si>
   <si>
@@ -244,6 +235,9 @@
   </si>
   <si>
     <t>funktioniert teilweise</t>
+  </si>
+  <si>
+    <t>17.10.2013 14:32Uhr</t>
   </si>
 </sst>
 </file>
@@ -651,7 +645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -695,13 +689,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="30">
@@ -717,11 +711,11 @@
       <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>60</v>
+      <c r="E3" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="45">
@@ -738,10 +732,10 @@
         <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1" ht="30">
@@ -758,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="75">
@@ -777,11 +771,11 @@
       <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>53</v>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="45">
@@ -797,11 +791,11 @@
       <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
+      <c r="E7" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="45">
@@ -817,51 +811,51 @@
       <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="E9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" ht="45">
@@ -877,11 +871,11 @@
       <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>65</v>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="30">
@@ -897,31 +891,31 @@
       <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="30">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="30">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="45">
@@ -937,11 +931,11 @@
       <c r="D14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>72</v>
+      <c r="E14" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
@@ -958,10 +952,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="45">
@@ -978,10 +972,10 @@
         <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="30">
@@ -998,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" ht="45">
@@ -1009,19 +1003,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,6 +1040,7 @@
       <c r="B79" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E79"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -198,9 +198,6 @@
     <t>16.10.2013 9:32Uhr</t>
   </si>
   <si>
-    <t>funktioniert nicht</t>
-  </si>
-  <si>
     <t>16.10.2013  9:35Uhr</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>17.10.2013 14:32Uhr</t>
+  </si>
+  <si>
+    <t>funktioniert nicht ist aber auch nicht ausdrücklich verlangt</t>
   </si>
 </sst>
 </file>
@@ -644,8 +644,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -692,7 +692,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>55</v>
@@ -712,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
@@ -732,10 +732,10 @@
         <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1" ht="30">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="75">
@@ -772,7 +772,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>54</v>
@@ -792,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>54</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>57</v>
@@ -832,10 +832,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="45">
@@ -852,10 +852,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" ht="45">
@@ -872,7 +872,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>58</v>
@@ -892,10 +892,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="30">
@@ -912,10 +912,10 @@
         <v>49</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="45">
@@ -932,10 +932,10 @@
         <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
@@ -952,10 +952,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="45">
@@ -972,10 +972,10 @@
         <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="30">
@@ -992,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>53</v>
@@ -1003,19 +1003,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">

--- a/Testphase/Testfälle_Bereichsleiter.xlsx
+++ b/Testphase/Testfälle_Bereichsleiter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\Stippler\04_Testphase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1860" yWindow="-240" windowWidth="12300" windowHeight="3900"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Rolle</t>
   </si>
@@ -204,21 +209,6 @@
     <t>15.10.2013  11:14Uhr</t>
   </si>
   <si>
-    <t>Weiterleitung von 1.Passwort ändern</t>
-  </si>
-  <si>
-    <t>Passwort nach erstem Login ändern</t>
-  </si>
-  <si>
-    <t>Weiterleitung auf den Startbildschirm nach erfolgreichem ändern</t>
-  </si>
-  <si>
-    <t>16.10.2013 9:40Uhr</t>
-  </si>
-  <si>
-    <t>wurde angepasst, kein button mehr für passwort vergessen</t>
-  </si>
-  <si>
     <t>16.10.2013 12:02Uhr</t>
   </si>
   <si>
@@ -237,13 +227,13 @@
     <t>17.10.2013 14:32Uhr</t>
   </si>
   <si>
-    <t>funktioniert nicht ist aber auch nicht ausdrücklich verlangt</t>
+    <t>wurde angepasst, kein button mehr für Passwort vergessen -&gt; in Hilfe verschoben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -266,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,12 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,10 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -353,13 +333,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,9 +385,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +419,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,9 +454,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,22 +630,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -678,7 +671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="120">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="114">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -692,13 +685,13 @@
         <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="30">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="28.5">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -712,13 +705,13 @@
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="45">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="42.75">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -732,33 +725,33 @@
         <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="42.75">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="13" customFormat="1" ht="30">
-      <c r="A5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="75">
+      <c r="F5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="71.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -772,13 +765,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="45">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="42.75">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -792,13 +785,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="45">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="42.75">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -812,13 +805,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="45">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="42.75">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -832,13 +825,13 @@
         <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="42.75">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -852,13 +845,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="42.75">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -872,13 +865,13 @@
         <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="30">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="28.5">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -892,13 +885,13 @@
         <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="28.5">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -912,13 +905,13 @@
         <v>49</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="28.5">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -932,13 +925,13 @@
         <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="28.5">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -952,13 +945,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="28.5">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -972,13 +965,13 @@
         <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" ht="30">
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="28.5">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -992,79 +985,59 @@
         <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="45">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="3"/>
+    <row r="23" spans="1:6">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="3"/>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E79"/>
+  <autoFilter ref="E1:E78"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
